--- a/product.xlsx
+++ b/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4F9F35-D4D0-490A-9604-F319D2B83577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB99F58C-DE6D-415A-9B96-DE4D973858E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>product ID</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Bottles</t>
+  </si>
+  <si>
+    <t>T-shirts</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,6 +504,15 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>900</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
